--- a/hg19data.xlsx
+++ b/hg19data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linguoliang/IdeaProjects/readsprocessing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ideaprojects\readsprocessing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAEE36A-B42F-BF4C-8B9A-45EEE7EE121E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9917027A-4245-49D0-ADCF-39D7E8714AE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7180" yWindow="3860" windowWidth="19200" windowHeight="14340" xr2:uid="{C48B85FF-7AA8-4423-8015-624C2F473F25}"/>
   </bookViews>
@@ -16,15 +16,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -546,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -935,11 +930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AC63EF-647A-401E-A738-CDBF6625BED3}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" customWidth="1"/>
@@ -947,7 +942,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -982,7 +977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1017,7 +1012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -1052,7 +1047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1087,7 +1082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1122,7 +1117,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1192,7 +1187,7 @@
         <v>302272</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1332,7 +1327,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1367,7 +1362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -1402,7 +1397,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1437,7 +1432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1507,7 +1502,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -1542,7 +1537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1577,7 +1572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1612,7 +1607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1682,7 +1677,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1717,7 +1712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -1752,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>7</v>
       </c>
@@ -1787,7 +1782,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1822,7 +1817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1857,7 +1852,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1892,7 +1887,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -1927,7 +1922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1962,7 +1957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -1997,7 +1992,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -2032,7 +2027,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -2067,7 +2062,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -2102,7 +2097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>16</v>
       </c>
@@ -2137,7 +2132,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1</v>
       </c>
@@ -2172,7 +2167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2207,7 +2202,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -2242,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -2277,7 +2272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
@@ -2312,7 +2307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>7</v>
       </c>
@@ -2347,7 +2342,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2417,7 +2412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>7</v>
       </c>
@@ -2452,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -2487,7 +2482,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -2522,7 +2517,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>7</v>
       </c>
@@ -2557,7 +2552,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -2592,7 +2587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>7</v>
       </c>
@@ -2662,7 +2657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2697,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>9</v>
       </c>
@@ -2732,7 +2727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>7</v>
       </c>
@@ -2767,7 +2762,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>6</v>
       </c>
@@ -2837,7 +2832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2872,7 +2867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2907,7 +2902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2942,7 +2937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2977,7 +2972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3012,7 +3007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3082,7 +3077,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3117,7 +3112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1</v>
       </c>
@@ -3152,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>21</v>
       </c>
@@ -3187,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>8</v>
       </c>
@@ -3222,7 +3217,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3257,7 +3252,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3292,7 +3287,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>5</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3362,7 +3357,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
@@ -3397,7 +3392,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>9</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1</v>
       </c>
@@ -3485,237 +3480,237 @@
       <selection sqref="A1:A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>151</v>
       </c>
